--- a/ConceptMap-R5-ActorDefinition-elements-for-R4.xlsx
+++ b/ConceptMap-R5-ActorDefinition-elements-for-R4.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-06T13:17:30.9024788-06:00</t>
+    <t>2026-02-09T22:05:43.4378394-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ConceptMap-R5-ActorDefinition-elements-for-R4.xlsx
+++ b/ConceptMap-R5-ActorDefinition-elements-for-R4.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-09T22:05:43.4378394-06:00</t>
+    <t>2026-02-17T14:42:26.963057-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -165,7 +165,7 @@
     <t>url</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ActorDefinition:url</t>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ActorDefinition:http://hl7.org/fhir/5.0/StructureDefinition/extension-ActorDefinition.url</t>
   </si>
   <si>
     <t>ActorDefinition.identifier</t>
@@ -183,7 +183,7 @@
     <t>version</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ActorDefinition:version</t>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ActorDefinition:http://hl7.org/fhir/5.0/StructureDefinition/extension-ActorDefinition.version</t>
   </si>
   <si>
     <t>ActorDefinition.versionAlgorithm[x]</t>
@@ -192,7 +192,7 @@
     <t>versionAlgorithm[x]</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ActorDefinition:versionAlgorithm</t>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ActorDefinition:http://hl7.org/fhir/5.0/StructureDefinition/extension-ActorDefinition.versionAlgorithm</t>
   </si>
   <si>
     <t>ActorDefinition.name</t>
@@ -201,7 +201,7 @@
     <t>name</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ActorDefinition:name</t>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ActorDefinition:http://hl7.org/fhir/5.0/StructureDefinition/extension-ActorDefinition.name</t>
   </si>
   <si>
     <t>ActorDefinition.title</t>
@@ -210,7 +210,7 @@
     <t>title</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ActorDefinition:title</t>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ActorDefinition:http://hl7.org/fhir/5.0/StructureDefinition/extension-ActorDefinition.title</t>
   </si>
   <si>
     <t>ActorDefinition.status</t>
@@ -219,7 +219,7 @@
     <t>status</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ActorDefinition:status</t>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ActorDefinition:http://hl7.org/fhir/5.0/StructureDefinition/extension-ActorDefinition.status</t>
   </si>
   <si>
     <t>ActorDefinition.experimental</t>
@@ -228,7 +228,7 @@
     <t>experimental</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ActorDefinition:experimental</t>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ActorDefinition:http://hl7.org/fhir/5.0/StructureDefinition/extension-ActorDefinition.experimental</t>
   </si>
   <si>
     <t>ActorDefinition.date</t>
@@ -237,7 +237,7 @@
     <t>date</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ActorDefinition:date</t>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ActorDefinition:http://hl7.org/fhir/5.0/StructureDefinition/extension-ActorDefinition.date</t>
   </si>
   <si>
     <t>ActorDefinition.publisher</t>
@@ -246,7 +246,7 @@
     <t>publisher</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ActorDefinition:publisher</t>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ActorDefinition:http://hl7.org/fhir/5.0/StructureDefinition/extension-ActorDefinition.publisher</t>
   </si>
   <si>
     <t>ActorDefinition.contact</t>
@@ -255,7 +255,7 @@
     <t>contact</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ActorDefinition:contact</t>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ActorDefinition:http://hl7.org/fhir/5.0/StructureDefinition/extension-ActorDefinition.contact</t>
   </si>
   <si>
     <t>ActorDefinition.description</t>
@@ -264,7 +264,7 @@
     <t>description</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ActorDefinition:description</t>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ActorDefinition:http://hl7.org/fhir/5.0/StructureDefinition/extension-ActorDefinition.description</t>
   </si>
   <si>
     <t>ActorDefinition.useContext</t>
@@ -273,7 +273,7 @@
     <t>useContext</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ActorDefinition:useContext</t>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ActorDefinition:http://hl7.org/fhir/5.0/StructureDefinition/extension-ActorDefinition.useContext</t>
   </si>
   <si>
     <t>ActorDefinition.jurisdiction</t>
@@ -282,7 +282,7 @@
     <t>jurisdiction</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ActorDefinition:jurisdiction</t>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ActorDefinition:http://hl7.org/fhir/5.0/StructureDefinition/extension-ActorDefinition.jurisdiction</t>
   </si>
   <si>
     <t>ActorDefinition.purpose</t>
@@ -291,7 +291,7 @@
     <t>purpose</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ActorDefinition:purpose</t>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ActorDefinition:http://hl7.org/fhir/5.0/StructureDefinition/extension-ActorDefinition.purpose</t>
   </si>
   <si>
     <t>ActorDefinition.copyright</t>
@@ -300,7 +300,7 @@
     <t>copyright</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ActorDefinition:copyright</t>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ActorDefinition:http://hl7.org/fhir/5.0/StructureDefinition/extension-ActorDefinition.copyright</t>
   </si>
   <si>
     <t>ActorDefinition.copyrightLabel</t>
@@ -309,7 +309,7 @@
     <t>copyrightLabel</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ActorDefinition:copyrightLabel</t>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ActorDefinition:http://hl7.org/fhir/5.0/StructureDefinition/extension-ActorDefinition.copyrightLabel</t>
   </si>
   <si>
     <t>ActorDefinition.type</t>
@@ -318,7 +318,7 @@
     <t>type</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ActorDefinition:type</t>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ActorDefinition:http://hl7.org/fhir/5.0/StructureDefinition/extension-ActorDefinition.type</t>
   </si>
   <si>
     <t>ActorDefinition.documentation</t>
@@ -327,7 +327,7 @@
     <t>documentation</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ActorDefinition:documentation</t>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ActorDefinition:http://hl7.org/fhir/5.0/StructureDefinition/extension-ActorDefinition.documentation</t>
   </si>
   <si>
     <t>ActorDefinition.reference</t>
@@ -336,7 +336,7 @@
     <t>reference</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ActorDefinition:reference</t>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ActorDefinition:http://hl7.org/fhir/5.0/StructureDefinition/extension-ActorDefinition.reference</t>
   </si>
   <si>
     <t>ActorDefinition.capabilities</t>
@@ -345,7 +345,7 @@
     <t>capabilities</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ActorDefinition:capabilities</t>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ActorDefinition:http://hl7.org/fhir/5.0/StructureDefinition/extension-ActorDefinition.capabilities</t>
   </si>
   <si>
     <t>ActorDefinition.derivedFrom</t>
@@ -354,7 +354,7 @@
     <t>derivedFrom</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ActorDefinition:derivedFrom</t>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ActorDefinition:http://hl7.org/fhir/5.0/StructureDefinition/extension-ActorDefinition.derivedFrom</t>
   </si>
 </sst>
 </file>
